--- a/REST 명세.xlsx
+++ b/REST 명세.xlsx
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,14 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>public/private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +229,74 @@
   </si>
   <si>
     <t>로그 Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobileNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table user(
+id integer primary key auto_increment,
+email text,
+name text,
+userId text,
+password text,
+mobileNo text,
+age integer);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_key=[자신의 Write API Key]&amp;field1=0.0002
+출처: http://wemakers.tistory.com/57 [We Makers !]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +317,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -308,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +405,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:I22"/>
+  <dimension ref="B6:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,32 +708,34 @@
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -671,14 +752,17 @@
         <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -694,13 +778,14 @@
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -711,14 +796,15 @@
         <v>15</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -737,8 +823,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -754,116 +841,217 @@
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="I22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="11"/>
+      <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="11"/>
+      <c r="F26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="11"/>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+      <c r="F28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="11"/>
+      <c r="F29" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F19" s="7" t="s">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="11"/>
+      <c r="F30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F20" s="7" t="s">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="11"/>
+      <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E24:E36"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>